--- a/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/Dom_S2_Sub_S1.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/Dom_S2_Sub_S1.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
